--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_8_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_8_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31614.88096582635</v>
+        <v>6291361.312199439</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31614.88096582635</v>
+        <v>6291361.312199439</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23518.49463951567</v>
+        <v>1613797.608993345</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23518.49463951567</v>
+        <v>1613797.608993345</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341943862.699366</v>
+        <v>53125625.49889103</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10817.3840699811</v>
+        <v>1175492.027119435</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21162.65103132445</v>
+        <v>2277413.522826888</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31507.9179926678</v>
+        <v>3379335.018534342</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44203.91042849729</v>
+        <v>4456876.342840873</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56689.88589462976</v>
+        <v>5492624.290177706</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>69175.86136076225</v>
+        <v>6528372.237514537</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>82063.65662487452</v>
+        <v>7578996.862023083</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95029.61128488522</v>
+        <v>8620406.278560935</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>107708.6369550225</v>
+        <v>9646584.477100777</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>119996.0685004682</v>
+        <v>10701875.01952226</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>131630.7163009091</v>
+        <v>11803829.92981328</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142136.5228892288</v>
+        <v>12863991.46313461</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>152852.3464472455</v>
+        <v>13965946.37342564</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>163568.1700052621</v>
+        <v>15067901.28371667</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>174536.7891692679</v>
+        <v>16034156.74303367</v>
       </c>
     </row>
   </sheetData>
